--- a/SistemaDeEcuacionesLin/Planilla de Métricas V2.1.xlsx
+++ b/SistemaDeEcuacionesLin/Planilla de Métricas V2.1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="19440" windowHeight="10170"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Métricas" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Preparación de la Prueba</t>
   </si>
@@ -118,31 +118,40 @@
     <t>TOTALES Desarrollo</t>
   </si>
   <si>
-    <t>suma, resta, atributo, constructores</t>
-  </si>
-  <si>
-    <t>producto escalar y real</t>
-  </si>
-  <si>
-    <t>toString()</t>
-  </si>
-  <si>
-    <t>normas, equals y clone</t>
-  </si>
-  <si>
-    <t>clase matriz</t>
+    <t>metodos clase vector</t>
+  </si>
+  <si>
+    <t>atributos ,metodos equals y get() y set() clase matriz</t>
+  </si>
+  <si>
+    <t>constructores clase matriz</t>
+  </si>
+  <si>
+    <t>metodos clase matriz</t>
+  </si>
+  <si>
+    <t>constructores y atributos clase sel</t>
+  </si>
+  <si>
+    <t>metodos clase sel</t>
+  </si>
+  <si>
+    <t>atributos ,metodos equals,clone y get() y set() clase vector</t>
+  </si>
+  <si>
+    <t>constructores clase vector, toString()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
     <numFmt numFmtId="165" formatCode="[h]:mm"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -629,6 +638,19 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -636,7 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -923,6 +945,14 @@
     <xf numFmtId="49" fontId="2" fillId="7" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -933,7 +963,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Porcentual" xfId="1" builtinId="5"/>
+    <cellStyle name="Porcentaje" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -978,8 +1008,19 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="es-AR"/>
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -999,6 +1040,7 @@
           <c:order val="0"/>
           <c:dPt>
             <c:idx val="0"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FFC000"/>
@@ -1007,6 +1049,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="00B0F0"/>
@@ -1015,6 +1058,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="0066FF"/>
@@ -1023,6 +1067,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="009900"/>
@@ -1031,6 +1076,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="FF0000"/>
@@ -1039,6 +1085,7 @@
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
+            <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
                 <a:srgbClr val="002060"/>
@@ -1081,25 +1128,33 @@
                   <c:v>3.4722222222222654E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.9444444444444198E-3</c:v>
+                  <c:v>1.5277777777777724E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.6666666666666663E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.3194444444444509E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.0833333333333332E-2</c:v>
+                  <c:v>1.3194444444444444E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.12152777777777773</c:v>
+                  <c:v>0.10277777777777772</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="0"/>
+        </c:dLbls>
         <c:firstSliceAng val="0"/>
       </c:pieChart>
     </c:plotArea>
@@ -1115,6 +1170,7 @@
           <c:h val="0.52354412740966338"/>
         </c:manualLayout>
       </c:layout>
+      <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
         <a:lstStyle/>
@@ -1122,12 +1178,13 @@
           <a:pPr>
             <a:defRPr lang="es-ES"/>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="es-ES"/>
         </a:p>
       </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:noFill/>
@@ -1253,6 +1310,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1287,6 +1345,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1462,42 +1521,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.140625" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="28" customWidth="1"/>
-    <col min="3" max="11" width="11.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="1.125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="28" customWidth="1"/>
+    <col min="3" max="11" width="11.375" style="28" customWidth="1"/>
     <col min="12" max="12" width="13" style="28" customWidth="1"/>
-    <col min="13" max="14" width="11.42578125" style="28" customWidth="1"/>
-    <col min="15" max="15" width="1.140625" style="21" customWidth="1"/>
-    <col min="16" max="16384" width="11.42578125" style="28" hidden="1"/>
+    <col min="13" max="14" width="11.375" style="28" customWidth="1"/>
+    <col min="15" max="15" width="1.125" style="21" customWidth="1"/>
+    <col min="16" max="16384" width="11.375" style="28" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="10" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B1" s="92" t="s">
+    <row r="1" spans="1:16" s="10" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="94" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-    </row>
-    <row r="2" spans="1:16" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1">
+      <c r="C1" s="94"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="95"/>
+      <c r="H1" s="95"/>
+      <c r="I1" s="95"/>
+      <c r="J1" s="95"/>
+      <c r="K1" s="95"/>
+      <c r="L1" s="95"/>
+      <c r="M1" s="95"/>
+      <c r="N1" s="95"/>
+    </row>
+    <row r="2" spans="1:16" s="10" customFormat="1" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="60"/>
       <c r="C2" s="60"/>
       <c r="D2" s="59"/>
@@ -1512,7 +1571,7 @@
       <c r="M2" s="59"/>
       <c r="N2" s="59"/>
     </row>
-    <row r="3" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="3" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="67" t="s">
         <v>3</v>
@@ -1531,7 +1590,7 @@
       <c r="N3" s="12"/>
       <c r="O3" s="11"/>
     </row>
-    <row r="4" spans="1:16" s="15" customFormat="1" ht="30">
+    <row r="4" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="14"/>
       <c r="B4" s="55" t="s">
         <v>1</v>
@@ -1557,7 +1616,7 @@
       <c r="O4" s="14"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="5" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="19"/>
       <c r="B5" s="1">
         <v>6.9444444444444441E-3</v>
@@ -1584,7 +1643,7 @@
       <c r="O5" s="19"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1">
+    <row r="6" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1602,7 +1661,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="24"/>
     </row>
-    <row r="7" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="7" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="67" t="s">
         <v>0</v>
@@ -1621,7 +1680,7 @@
       <c r="N7" s="12"/>
       <c r="O7" s="11"/>
     </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="30">
+    <row r="8" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="14"/>
       <c r="B8" s="55" t="s">
         <v>1</v>
@@ -1647,7 +1706,7 @@
       <c r="O8" s="14"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="9" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="19"/>
       <c r="B9" s="1">
         <v>1.3888888888888888E-2</v>
@@ -1656,11 +1715,11 @@
         <v>0.3666666666666667</v>
       </c>
       <c r="D9" s="2">
-        <v>0.37361111111111112</v>
+        <v>0.38194444444444442</v>
       </c>
       <c r="E9" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C9),ISBLANK(D9)),"Completar",IF(D9&gt;=C9,D9-C9,"Error")),"Error")</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.5277777777777724E-2</v>
       </c>
       <c r="F9" s="66"/>
       <c r="G9" s="66"/>
@@ -1674,7 +1733,7 @@
       <c r="O9" s="19"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1">
+    <row r="10" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1692,7 +1751,7 @@
       <c r="O10" s="21"/>
       <c r="P10" s="24"/>
     </row>
-    <row r="11" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="67" t="s">
         <v>30</v>
@@ -1711,7 +1770,7 @@
       <c r="N11" s="12"/>
       <c r="O11" s="11"/>
     </row>
-    <row r="12" spans="1:16" s="15" customFormat="1" ht="30">
+    <row r="12" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="55" t="s">
         <v>1</v>
@@ -1737,18 +1796,20 @@
       <c r="O12" s="14"/>
       <c r="P12" s="18"/>
     </row>
-    <row r="13" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="13" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="19"/>
       <c r="B13" s="1">
-        <v>4.1666666666666664E-2</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="C13" s="2">
-        <v>0.37361111111111112</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="52" t="str">
+        <v>0.38263888888888892</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.39930555555555558</v>
+      </c>
+      <c r="E13" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C13),ISBLANK(D13)),"Completar",IF(D13&gt;=C13,D13-C13,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>1.6666666666666663E-2</v>
       </c>
       <c r="F13" s="66"/>
       <c r="G13" s="66"/>
@@ -1762,7 +1823,7 @@
       <c r="O13" s="19"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1">
+    <row r="14" spans="1:16" s="25" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1780,7 +1841,7 @@
       <c r="O14" s="21"/>
       <c r="P14" s="24"/>
     </row>
-    <row r="15" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="67" t="s">
         <v>7</v>
@@ -1799,7 +1860,7 @@
       <c r="N15" s="69"/>
       <c r="O15" s="11"/>
     </row>
-    <row r="16" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1">
+    <row r="16" spans="1:16" s="15" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="88" t="s">
         <v>8</v>
@@ -1831,7 +1892,7 @@
       <c r="O16" s="14"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" s="15" customFormat="1" ht="30">
+    <row r="17" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="88"/>
       <c r="C17" s="74"/>
@@ -1863,75 +1924,75 @@
       <c r="O17" s="14"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" s="23" customFormat="1">
+    <row r="18" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19"/>
       <c r="B18" s="44">
         <f>ROW($B18)-16</f>
         <v>2</v>
       </c>
       <c r="C18" s="76" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="D18" s="76"/>
       <c r="E18" s="77"/>
       <c r="F18" s="3">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="G18" s="4">
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="H18" s="5">
-        <v>0.37361111111111112</v>
+        <v>0.39999999999999997</v>
       </c>
       <c r="I18" s="6">
-        <v>0.41736111111111113</v>
+        <v>0.40277777777777773</v>
       </c>
       <c r="J18" s="53">
         <f>IFERROR(IF(OR(ISBLANK(H18),ISBLANK(I18)),"",IF(I18&gt;=H18,I18-H18,"Error")),"Error")</f>
-        <v>4.3750000000000011E-2</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="K18" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L18" s="8">
-        <v>6.9444444444444441E-3</v>
+        <v>0</v>
       </c>
       <c r="M18" s="9">
-        <v>94</v>
+        <v>26</v>
       </c>
       <c r="N18" s="54">
         <f>IFERROR(IF(OR(J18="",ISBLANK(L18)),"",J18+L18),"Error")</f>
-        <v>5.0694444444444459E-2</v>
+        <v>2.7777777777777679E-3</v>
       </c>
       <c r="O18" s="19"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1">
+    <row r="19" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19"/>
       <c r="B19" s="44">
         <f t="shared" ref="B19:B25" si="0">ROW($B19)-16</f>
         <v>3</v>
       </c>
       <c r="C19" s="76" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D19" s="76"/>
       <c r="E19" s="77"/>
       <c r="F19" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="G19" s="4">
-        <v>2.7777777777777779E-3</v>
+        <v>1.0416666666666666E-2</v>
       </c>
       <c r="H19" s="5">
-        <v>0.41736111111111113</v>
+        <v>0.40347222222222223</v>
       </c>
       <c r="I19" s="6">
-        <v>0.42291666666666666</v>
+        <v>0.41319444444444442</v>
       </c>
       <c r="J19" s="53">
         <f t="shared" ref="J19:J23" si="1">IFERROR(IF(OR(ISBLANK(H19),ISBLANK(I19)),"",IF(I19&gt;=H19,I19-H19,"Error")),"Error")</f>
-        <v>5.5555555555555358E-3</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="K19" s="7">
         <v>0</v>
@@ -1940,66 +2001,66 @@
         <v>0</v>
       </c>
       <c r="M19" s="9">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="N19" s="54">
         <f t="shared" ref="N19:N25" si="2">IFERROR(IF(OR(J19="",ISBLANK(L19)),"",J19+L19),"Error")</f>
-        <v>5.5555555555555358E-3</v>
+        <v>9.7222222222221877E-3</v>
       </c>
       <c r="O19" s="19"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1">
+    <row r="20" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19"/>
       <c r="B20" s="44">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C20" s="76" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
+      <c r="C20" s="77" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="93"/>
       <c r="F20" s="3">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G20" s="4">
-        <v>1.0416666666666666E-2</v>
+        <v>2.7777777777777776E-2</v>
       </c>
       <c r="H20" s="5">
-        <v>0.44236111111111115</v>
+        <v>0.41388888888888892</v>
       </c>
       <c r="I20" s="6">
-        <v>0.45069444444444445</v>
+        <v>0.4375</v>
       </c>
       <c r="J20" s="53">
         <f t="shared" si="1"/>
-        <v>8.3333333333333037E-3</v>
+        <v>2.3611111111111083E-2</v>
       </c>
       <c r="K20" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L20" s="8">
-        <v>0</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="M20" s="9">
         <v>16</v>
       </c>
       <c r="N20" s="54">
         <f t="shared" si="2"/>
-        <v>8.3333333333333037E-3</v>
+        <v>2.7083333333333307E-2</v>
       </c>
       <c r="O20" s="19"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19"/>
       <c r="B21" s="44">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C21" s="76" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D21" s="76"/>
       <c r="E21" s="77"/>
@@ -2007,17 +2068,17 @@
         <v>30</v>
       </c>
       <c r="G21" s="4">
-        <v>1.3888888888888888E-2</v>
+        <v>3.472222222222222E-3</v>
       </c>
       <c r="H21" s="5">
-        <v>0.45277777777777778</v>
+        <v>0.4381944444444445</v>
       </c>
       <c r="I21" s="6">
-        <v>0.4597222222222222</v>
+        <v>0.44236111111111115</v>
       </c>
       <c r="J21" s="53">
         <f t="shared" si="1"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="K21" s="7">
         <v>0</v>
@@ -2030,130 +2091,183 @@
       </c>
       <c r="N21" s="54">
         <f t="shared" si="2"/>
-        <v>6.9444444444444198E-3</v>
+        <v>4.1666666666666519E-3</v>
       </c>
       <c r="O21" s="19"/>
       <c r="P21" s="22"/>
     </row>
-    <row r="22" spans="1:16" s="23" customFormat="1">
+    <row r="22" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19"/>
       <c r="B22" s="44">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C22" s="76" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D22" s="76"/>
       <c r="E22" s="77"/>
       <c r="F22" s="3">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="G22" s="4">
-        <v>4.1666666666666664E-2</v>
+        <v>6.9444444444444441E-3</v>
       </c>
       <c r="H22" s="5">
-        <v>0.88055555555555554</v>
+        <v>0.44305555555555554</v>
       </c>
       <c r="I22" s="6">
-        <v>0.9375</v>
+        <v>0.45208333333333334</v>
       </c>
       <c r="J22" s="53">
         <f t="shared" si="1"/>
-        <v>5.6944444444444464E-2</v>
+        <v>9.0277777777778012E-3</v>
       </c>
       <c r="K22" s="7">
         <v>4</v>
       </c>
       <c r="L22" s="8">
-        <v>1.3888888888888888E-2</v>
+        <v>1.3888888888888889E-3</v>
       </c>
       <c r="M22" s="9">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="N22" s="54">
         <f t="shared" si="2"/>
-        <v>7.0833333333333359E-2</v>
+        <v>1.041666666666669E-2</v>
       </c>
       <c r="O22" s="19"/>
       <c r="P22" s="22"/>
     </row>
-    <row r="23" spans="1:16" s="23" customFormat="1">
+    <row r="23" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19"/>
       <c r="B23" s="44">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C23" s="76"/>
+      <c r="C23" s="76" t="s">
+        <v>37</v>
+      </c>
       <c r="D23" s="76"/>
       <c r="E23" s="77"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="53" t="str">
+      <c r="F23" s="3">
+        <v>200</v>
+      </c>
+      <c r="G23" s="4">
+        <v>3.125E-2</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.45277777777777778</v>
+      </c>
+      <c r="I23" s="6">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="J23" s="53">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="8"/>
-      <c r="M23" s="9"/>
-      <c r="N23" s="54" t="str">
+        <v>3.3333333333333326E-2</v>
+      </c>
+      <c r="K23" s="7">
+        <v>10</v>
+      </c>
+      <c r="L23" s="8">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="M23" s="9">
+        <v>291</v>
+      </c>
+      <c r="N23" s="54">
         <f t="shared" si="2"/>
-        <v/>
+        <v>4.0277777777777773E-2</v>
       </c>
       <c r="O23" s="19"/>
       <c r="P23" s="22"/>
     </row>
-    <row r="24" spans="1:16" s="23" customFormat="1">
+    <row r="24" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="19"/>
       <c r="B24" s="44">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C24" s="76"/>
+      <c r="C24" s="76" t="s">
+        <v>38</v>
+      </c>
       <c r="D24" s="76"/>
       <c r="E24" s="77"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="9"/>
-      <c r="N24" s="54"/>
+      <c r="F24" s="3">
+        <v>30</v>
+      </c>
+      <c r="G24" s="4">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.48680555555555555</v>
+      </c>
+      <c r="I24" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="J24" s="53">
+        <f>IFERROR(IF(OR(ISBLANK(H24),ISBLANK(I24)),"",IF(I24&gt;=H24,I24-H24,"Error")),"Error")</f>
+        <v>1.3194444444444453E-2</v>
+      </c>
+      <c r="K24" s="7">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="9">
+        <v>40</v>
+      </c>
+      <c r="N24" s="54">
+        <f t="shared" si="2"/>
+        <v>1.3194444444444453E-2</v>
+      </c>
       <c r="O24" s="19"/>
       <c r="P24" s="22"/>
     </row>
-    <row r="25" spans="1:16" s="23" customFormat="1">
+    <row r="25" spans="1:16" s="23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="19"/>
       <c r="B25" s="44">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C25" s="76"/>
+      <c r="C25" s="76" t="s">
+        <v>39</v>
+      </c>
       <c r="D25" s="76"/>
       <c r="E25" s="77"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="53" t="str">
-        <f>IFERROR(IF(OR(ISBLANK(H25),ISBLANK(I25)),"",IF(I25&gt;=H25,I25-H25,"Error")),"Error")</f>
-        <v/>
-      </c>
-      <c r="K25" s="7"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="54" t="str">
+      <c r="F25" s="3">
+        <v>50</v>
+      </c>
+      <c r="G25" s="4">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.50069444444444444</v>
+      </c>
+      <c r="I25" s="6">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="J25" s="53">
+        <v>6.9444444444444441E-3</v>
+      </c>
+      <c r="K25" s="7">
+        <v>3</v>
+      </c>
+      <c r="L25" s="8">
+        <v>1.3888888888888889E-3</v>
+      </c>
+      <c r="M25" s="9">
+        <v>45</v>
+      </c>
+      <c r="N25" s="54">
         <f t="shared" si="2"/>
-        <v/>
+        <v>8.3333333333333332E-3</v>
       </c>
       <c r="O25" s="19"/>
       <c r="P25" s="22"/>
     </row>
-    <row r="26" spans="1:16" s="27" customFormat="1" ht="15.75" thickBot="1">
+    <row r="26" spans="1:16" s="27" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="14"/>
       <c r="B26" s="81" t="s">
         <v>33</v>
@@ -2163,11 +2277,11 @@
       <c r="E26" s="83"/>
       <c r="F26" s="45">
         <f>IF(SUM(F18:F25)=0,"Completar",SUM(F18:F25))</f>
-        <v>415</v>
+        <v>510</v>
       </c>
       <c r="G26" s="46">
         <f>IF(SUM(G18:G25)=0,"Completar",SUM(G18:G25))</f>
-        <v>0.11041666666666666</v>
+        <v>0.11111111111111112</v>
       </c>
       <c r="H26" s="47" t="s">
         <v>32</v>
@@ -2177,28 +2291,28 @@
       </c>
       <c r="J26" s="49">
         <f>IF(OR(COUNTIF(J18:J25,"Error")&gt;0,COUNTIF(J18:J25,"Completar")&gt;0),"Error",IF(SUM(J18:J25)=0,"Completar",SUM(J18:J25)))</f>
-        <v>0.12152777777777773</v>
+        <v>0.10277777777777772</v>
       </c>
       <c r="K26" s="50">
         <f>SUM(K18:K25)</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="L26" s="46">
         <f>SUM(L18:L25)</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="M26" s="51">
         <f>IF(SUM(M18:M25)=0,"Completar",SUM(M18:M25))</f>
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="N26" s="52">
         <f>IF(OR(COUNTIF(N18:N25,"Error")&gt;0,COUNTIF(N18:N25,"Completar")&gt;0),"Error",IF(SUM(N18:N25)=0,"Completar",SUM(N18:N25)))</f>
-        <v>0.14236111111111108</v>
+        <v>0.11597222222222217</v>
       </c>
       <c r="O26" s="14"/>
       <c r="P26" s="26"/>
     </row>
-    <row r="27" spans="1:16" s="24" customFormat="1" ht="6" customHeight="1" thickBot="1">
+    <row r="27" spans="1:16" s="24" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="21"/>
       <c r="B27" s="19"/>
       <c r="C27" s="21"/>
@@ -2215,7 +2329,7 @@
       <c r="N27" s="21"/>
       <c r="O27" s="21"/>
     </row>
-    <row r="28" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:16" s="13" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="67" t="s">
         <v>18</v>
@@ -2234,7 +2348,7 @@
       <c r="N28" s="12"/>
       <c r="O28" s="11"/>
     </row>
-    <row r="29" spans="1:16" s="15" customFormat="1" ht="30">
+    <row r="29" spans="1:16" s="15" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
       <c r="B29" s="55" t="s">
         <v>1</v>
@@ -2260,14 +2374,20 @@
       <c r="O29" s="14"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="52" t="str">
+      <c r="B30" s="1">
+        <v>1.3888888888888888E-2</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.50763888888888886</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="E30" s="52">
         <f>IFERROR(IF(OR(ISBLANK(C30),ISBLANK(D30)),"Completar",IF(D30&gt;=C30,D30-C30,"Error")),"Error")</f>
-        <v>Completar</v>
+        <v>1.3194444444444509E-2</v>
       </c>
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
@@ -2281,7 +2401,7 @@
       <c r="O30" s="19"/>
       <c r="P30" s="22"/>
     </row>
-    <row r="31" spans="1:16" s="24" customFormat="1" ht="6" customHeight="1" thickBot="1">
+    <row r="31" spans="1:16" s="24" customFormat="1" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2298,7 +2418,7 @@
       <c r="N31" s="21"/>
       <c r="O31" s="21"/>
     </row>
-    <row r="32" spans="1:16">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B32" s="67" t="s">
         <v>20</v>
       </c>
@@ -2315,7 +2435,7 @@
       <c r="M32" s="68"/>
       <c r="N32" s="69"/>
     </row>
-    <row r="33" spans="1:15" ht="15" customHeight="1">
+    <row r="33" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="78" t="s">
         <v>22</v>
       </c>
@@ -2323,7 +2443,7 @@
       <c r="D33" s="80"/>
       <c r="E33" s="72">
         <f>M26</f>
-        <v>167</v>
+        <v>509</v>
       </c>
       <c r="F33" s="73"/>
       <c r="G33" s="29"/>
@@ -2335,7 +2455,7 @@
       <c r="M33" s="30"/>
       <c r="N33" s="31"/>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B34" s="78" t="s">
         <v>23</v>
       </c>
@@ -2343,7 +2463,7 @@
       <c r="D34" s="80"/>
       <c r="E34" s="70">
         <f>IF(M26="Completar","Completar",IFERROR(M26/(N26*24),"Error"))</f>
-        <v>48.878048780487816</v>
+        <v>182.87425149700604</v>
       </c>
       <c r="F34" s="71"/>
       <c r="G34" s="32"/>
@@ -2355,7 +2475,7 @@
       <c r="M34" s="33"/>
       <c r="N34" s="34"/>
     </row>
-    <row r="35" spans="1:15" ht="15" customHeight="1">
+    <row r="35" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="78" t="s">
         <v>21</v>
       </c>
@@ -2375,7 +2495,7 @@
       <c r="M35" s="33"/>
       <c r="N35" s="34"/>
     </row>
-    <row r="36" spans="1:15" ht="15" customHeight="1">
+    <row r="36" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B36" s="78" t="s">
         <v>24</v>
       </c>
@@ -2383,7 +2503,7 @@
       <c r="D36" s="80"/>
       <c r="E36" s="84">
         <f>IF(K26=0,0,IFERROR(K26/M26,"Error"))</f>
-        <v>4.1916167664670656E-2</v>
+        <v>4.3222003929273084E-2</v>
       </c>
       <c r="F36" s="85"/>
       <c r="G36" s="32"/>
@@ -2395,7 +2515,7 @@
       <c r="M36" s="33"/>
       <c r="N36" s="34"/>
     </row>
-    <row r="37" spans="1:15" ht="15" customHeight="1">
+    <row r="37" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="78" t="s">
         <v>27</v>
       </c>
@@ -2407,7 +2527,7 @@
       </c>
       <c r="F37" s="58">
         <f>IF(E37="Completar",E37,IFERROR(E37/$E$43,"Error"))</f>
-        <v>2.2727272727273016E-2</v>
+        <v>2.1097046413502372E-2</v>
       </c>
       <c r="G37" s="32"/>
       <c r="H37" s="33"/>
@@ -2418,7 +2538,7 @@
       <c r="M37" s="33"/>
       <c r="N37" s="34"/>
     </row>
-    <row r="38" spans="1:15" ht="15" customHeight="1">
+    <row r="38" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="78" t="s">
         <v>28</v>
       </c>
@@ -2426,11 +2546,11 @@
       <c r="D38" s="80"/>
       <c r="E38" s="57">
         <f>E9</f>
-        <v>6.9444444444444198E-3</v>
+        <v>1.5277777777777724E-2</v>
       </c>
       <c r="F38" s="58">
         <f>IF(E38="Completar",E38,IFERROR(E38/$E$43,"Error"))</f>
-        <v>4.5454545454545303E-2</v>
+        <v>9.2827004219408954E-2</v>
       </c>
       <c r="G38" s="32"/>
       <c r="H38" s="33"/>
@@ -2441,19 +2561,19 @@
       <c r="M38" s="33"/>
       <c r="N38" s="34"/>
     </row>
-    <row r="39" spans="1:15" ht="15" customHeight="1">
+    <row r="39" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="78" t="s">
         <v>31</v>
       </c>
       <c r="C39" s="79"/>
       <c r="D39" s="80"/>
-      <c r="E39" s="57" t="str">
+      <c r="E39" s="57">
         <f>E13</f>
-        <v>Completar</v>
-      </c>
-      <c r="F39" s="58" t="str">
+        <v>1.6666666666666663E-2</v>
+      </c>
+      <c r="F39" s="58">
         <f t="shared" ref="F39" si="3">IF(E39="Completar",E39,IFERROR(E39/$E$43,"Error"))</f>
-        <v>Completar</v>
+        <v>0.10126582278481011</v>
       </c>
       <c r="G39" s="32"/>
       <c r="H39" s="33"/>
@@ -2464,19 +2584,19 @@
       <c r="M39" s="33"/>
       <c r="N39" s="34"/>
     </row>
-    <row r="40" spans="1:15" ht="15" customHeight="1">
+    <row r="40" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="78" t="s">
         <v>29</v>
       </c>
       <c r="C40" s="79"/>
       <c r="D40" s="80"/>
-      <c r="E40" s="57" t="str">
+      <c r="E40" s="57">
         <f>E30</f>
-        <v>Completar</v>
-      </c>
-      <c r="F40" s="58" t="str">
+        <v>1.3194444444444509E-2</v>
+      </c>
+      <c r="F40" s="58">
         <f>IF(E40="Completar",E40,IFERROR(E40/$E$43,"Error"))</f>
-        <v>Completar</v>
+        <v>8.0168776371308412E-2</v>
       </c>
       <c r="G40" s="32"/>
       <c r="H40" s="33"/>
@@ -2487,7 +2607,7 @@
       <c r="M40" s="33"/>
       <c r="N40" s="34"/>
     </row>
-    <row r="41" spans="1:15" ht="15" customHeight="1">
+    <row r="41" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="78" t="s">
         <v>25</v>
       </c>
@@ -2495,11 +2615,11 @@
       <c r="D41" s="80"/>
       <c r="E41" s="57">
         <f>L26</f>
-        <v>2.0833333333333332E-2</v>
+        <v>1.3194444444444444E-2</v>
       </c>
       <c r="F41" s="58">
         <f>IF(E41="Completar",E41,IFERROR(E41/$E$43,"Completar"))</f>
-        <v>0.13636363636363638</v>
+        <v>8.0168776371308023E-2</v>
       </c>
       <c r="G41" s="32"/>
       <c r="H41" s="33"/>
@@ -2510,7 +2630,7 @@
       <c r="M41" s="33"/>
       <c r="N41" s="34"/>
     </row>
-    <row r="42" spans="1:15" ht="15" customHeight="1">
+    <row r="42" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="78" t="s">
         <v>26</v>
       </c>
@@ -2518,11 +2638,11 @@
       <c r="D42" s="80"/>
       <c r="E42" s="57">
         <f>J26</f>
-        <v>0.12152777777777773</v>
+        <v>0.10277777777777772</v>
       </c>
       <c r="F42" s="58">
         <f>IF(E42="Completar",E42,IFERROR(E42/$E$43,"Completar"))</f>
-        <v>0.79545454545454541</v>
+        <v>0.62447257383966204</v>
       </c>
       <c r="G42" s="32"/>
       <c r="H42" s="33"/>
@@ -2533,7 +2653,7 @@
       <c r="M42" s="33"/>
       <c r="N42" s="34"/>
     </row>
-    <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1">
+    <row r="43" spans="1:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B43" s="89" t="s">
         <v>6</v>
       </c>
@@ -2541,7 +2661,7 @@
       <c r="D43" s="91"/>
       <c r="E43" s="86">
         <f>IF(COUNTIF(E37:E42,"Error")&gt;0,"Error",IF(SUM(E37:E42)=0,"Completar",SUM(E37:E42)))</f>
-        <v>0.15277777777777773</v>
+        <v>0.16458333333333333</v>
       </c>
       <c r="F43" s="87"/>
       <c r="G43" s="35"/>
@@ -2553,34 +2673,34 @@
       <c r="M43" s="36"/>
       <c r="N43" s="37"/>
     </row>
-    <row r="44" spans="1:15" s="38" customFormat="1" ht="6" customHeight="1">
+    <row r="44" spans="1:15" s="38" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="21"/>
       <c r="O44" s="21"/>
     </row>
-    <row r="45" spans="1:15" hidden="1"/>
-    <row r="46" spans="1:15" hidden="1"/>
-    <row r="47" spans="1:15" hidden="1"/>
-    <row r="48" spans="1:15" hidden="1"/>
-    <row r="49" hidden="1"/>
-    <row r="50" hidden="1"/>
-    <row r="51" hidden="1"/>
-    <row r="52" hidden="1"/>
-    <row r="53" hidden="1"/>
-    <row r="54" hidden="1"/>
-    <row r="55" hidden="1"/>
-    <row r="56" hidden="1"/>
-    <row r="57" hidden="1"/>
-    <row r="58" hidden="1"/>
-    <row r="59" hidden="1"/>
-    <row r="60" hidden="1"/>
-    <row r="61" hidden="1"/>
-    <row r="62" hidden="1"/>
-    <row r="63" hidden="1"/>
-    <row r="64" hidden="1"/>
-    <row r="65" hidden="1"/>
-    <row r="66" hidden="1"/>
-    <row r="67" hidden="1"/>
-    <row r="68" hidden="1"/>
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0"/>
   <mergeCells count="44">
